--- a/datagen/cormat.xlsx
+++ b/datagen/cormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajthurston/Documents/GitHub/predprobs/datagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80E999-FB37-8040-A714-182651D21FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D313727E-128D-4E44-A3E1-28717FBABDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="15980" xr2:uid="{9EC584D0-7A16-425A-8CA4-CF8095FF7F2E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="cor" sheetId="1" r:id="rId1"/>
     <sheet name="sd" sheetId="2" r:id="rId2"/>
     <sheet name="mu" sheetId="3" r:id="rId3"/>
-    <sheet name="names" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,82 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>vet</t>
-  </si>
-  <si>
-    <t>dis</t>
-  </si>
-  <si>
-    <t>jk1</t>
-  </si>
-  <si>
-    <t>jk2</t>
-  </si>
-  <si>
-    <t>jk3</t>
-  </si>
-  <si>
-    <t>con1</t>
-  </si>
-  <si>
-    <t>con2</t>
-  </si>
-  <si>
-    <t>con3</t>
-  </si>
-  <si>
-    <t>con4</t>
-  </si>
-  <si>
-    <t>emo1</t>
-  </si>
-  <si>
-    <t>emo2</t>
-  </si>
-  <si>
-    <t>emo3</t>
-  </si>
-  <si>
-    <t>emo4</t>
-  </si>
-  <si>
-    <t>int1</t>
-  </si>
-  <si>
-    <t>int2</t>
-  </si>
-  <si>
-    <t>int3</t>
-  </si>
-  <si>
-    <t>perf</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>hispa</t>
-  </si>
-  <si>
-    <t>asian</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>tenure</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>turnover</t>
   </si>
@@ -161,10 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,20 +405,20 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -507,7 +430,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -515,11 +438,11 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>-0.5</v>
+      <c r="A4" s="1">
+        <v>-0.43</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.3</v>
+        <v>-0.48499999999999999</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -546,13 +469,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -575,24 +498,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2473BF-A680-41DC-A1BB-184320FD5AD9}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="B2" s="1">
         <v>0.6</v>
@@ -603,221 +528,6 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5468B43-3C37-48B4-8B57-67F39CA46B77}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
